--- a/Performance results/Results.xlsx
+++ b/Performance results/Results.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PROJECTS\Blazor\FastExponentiation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PROJECTS\Other\FastExponentiation\Performance results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Performance results" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed increase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -22,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>Function</t>
-  </si>
-  <si>
-    <t>Built-in</t>
   </si>
   <si>
     <t>Binary</t>
@@ -73,6 +71,9 @@
   </si>
   <si>
     <t>Mean time, ns</t>
+  </si>
+  <si>
+    <t>Built-in pow</t>
   </si>
 </sst>
 </file>
@@ -223,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +949,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1005,14 +1012,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1029,6 +1033,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1038,15 +1054,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1203,7 +1211,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1899,6 +1907,2508 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>C++ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> increase relative to built-in pow</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in pow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$3,'Performance results'!$F$3,'Performance results'!$I$3,'Performance results'!$L$3,'Performance results'!$O$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A3-4D3A-94C6-3FB3789894A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP dividing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$4,'Performance results'!$F$4,'Performance results'!$I$4,'Performance results'!$L$4,'Performance results'!$O$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1038575667655781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2518796992481205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3513513513513518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9810771470160118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6213720316622688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62A3-4D3A-94C6-3FB3789894A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP fractional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$5,'Performance results'!$F$5,'Performance results'!$I$5,'Performance results'!$L$5,'Performance results'!$O$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.3440366972477058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4410876132930515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8425000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9716157205240181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1404494382022472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-62A3-4D3A-94C6-3FB3789894A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$6,'Performance results'!$F$6,'Performance results'!$I$6,'Performance results'!$L$6,'Performance results'!$O$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.63013698630137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.174721189591079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2628398791540789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1858638743455501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-62A3-4D3A-94C6-3FB3789894A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Old approx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$7,'Performance results'!$F$7,'Performance results'!$I$7,'Performance results'!$L$7,'Performance results'!$O$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.348214285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.789029535864978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.171428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.264573991031391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.364864864864863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-62A3-4D3A-94C6-3FB3789894A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Another approx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$8,'Performance results'!$F$8,'Performance results'!$I$8,'Performance results'!$L$8,'Performance results'!$O$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0199637023593473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.901754385964912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9763636363636365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9368231046931408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0366972477064218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-62A3-4D3A-94C6-3FB3789894A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="214372144"/>
+        <c:axId val="214373392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="214372144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214373392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214373392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214372144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>C# </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed increase relative to built-in pow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20636700607792985"/>
+          <c:y val="2.6985277087799891E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in pow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$12,'Performance results'!$F$12,'Performance results'!$I$12,'Performance results'!$L$12,'Performance results'!$O$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-329B-4FCC-8EC3-6B6C3ECF6DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP dividing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$13,'Performance results'!$F$13,'Performance results'!$I$13,'Performance results'!$L$13,'Performance results'!$O$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5483870967741931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.564516129032258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4634146341463414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.098901098901099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-329B-4FCC-8EC3-6B6C3ECF6DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP fractional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$14,'Performance results'!$F$14,'Performance results'!$I$14,'Performance results'!$L$14,'Performance results'!$O$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.639344262295082</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5185185185185186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1685393258426964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-329B-4FCC-8EC3-6B6C3ECF6DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$15,'Performance results'!$F$15,'Performance results'!$I$15,'Performance results'!$L$15,'Performance results'!$O$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9268292682926829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9512195121951228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-329B-4FCC-8EC3-6B6C3ECF6DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Old approx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="25400">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$16,'Performance results'!$F$16,'Performance results'!$I$16,'Performance results'!$L$16,'Performance results'!$O$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.347826086956522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.818181818181817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-329B-4FCC-8EC3-6B6C3ECF6DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Another approx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Performance results'!$C$17,'Performance results'!$F$17,'Performance results'!$I$17,'Performance results'!$L$17,'Performance results'!$O$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.304347826086957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-329B-4FCC-8EC3-6B6C3ECF6DE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="214372144"/>
+        <c:axId val="214373392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="214372144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214373392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214373392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214372144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0" i="0"/>
+              <a:t>Java</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed increase relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to built-in pow</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in pow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20,'Performance results'!$Q$20)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$C$21,'Performance results'!$F$21,'Performance results'!$I$21,'Performance results'!$L$21,'Performance results'!$O$21,'Performance results'!$R$21)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$C$21,'Performance results'!$F$21,'Performance results'!$I$21,'Performance results'!$L$21,'Performance results'!$O$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D888-4A86-AE0B-15CC4C6382FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP dividing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20,'Performance results'!$Q$20)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$C$22,'Performance results'!$F$22,'Performance results'!$I$22,'Performance results'!$L$22,'Performance results'!$O$22,'Performance results'!$R$22)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$C$22,'Performance results'!$F$22,'Performance results'!$I$22,'Performance results'!$L$22,'Performance results'!$O$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1226277372262774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3797678275290215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1762048192771086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3236459709379127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2522935779816513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D888-4A86-AE0B-15CC4C6382FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP fractional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20,'Performance results'!$Q$20)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$C$23,'Performance results'!$F$23,'Performance results'!$I$23,'Performance results'!$L$23,'Performance results'!$O$23,'Performance results'!$R$23)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$C$23,'Performance results'!$F$23,'Performance results'!$I$23,'Performance results'!$L$23,'Performance results'!$O$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4939965694682673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3372093023255816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6709796672828094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8189102564102564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.817790530846485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D888-4A86-AE0B-15CC4C6382FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20,'Performance results'!$Q$20)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$C$24,'Performance results'!$F$24,'Performance results'!$I$24,'Performance results'!$L$24,'Performance results'!$O$24,'Performance results'!$R$24)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$C$24,'Performance results'!$F$24,'Performance results'!$I$24,'Performance results'!$L$24,'Performance results'!$O$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.396039603960395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0617977528089888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2166064981949454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9971590909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5995316159250592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D888-4A86-AE0B-15CC4C6382FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Old approx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="25400">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20,'Performance results'!$Q$20)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$C$25,'Performance results'!$F$25,'Performance results'!$I$25,'Performance results'!$L$25,'Performance results'!$O$25,'Performance results'!$R$25)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$C$25,'Performance results'!$F$25,'Performance results'!$I$25,'Performance results'!$L$25,'Performance results'!$O$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.4948453608247423</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.473958333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6455026455026456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3563829787234045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.502673796791443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D888-4A86-AE0B-15CC4C6382FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance results'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Another approx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20,'Performance results'!$Q$20)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$B$20,'Performance results'!$E$20,'Performance results'!$H$20,'Performance results'!$K$20,'Performance results'!$N$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Exp: -10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exp: 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Exp: 10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exp: 25.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exp: 55.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Performance results'!$C$26,'Performance results'!$F$26,'Performance results'!$I$26,'Performance results'!$L$26,'Performance results'!$O$26,'Performance results'!$R$26)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Performance results'!$C$26,'Performance results'!$F$26,'Performance results'!$I$26,'Performance results'!$L$26,'Performance results'!$O$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.2338308457711449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2474747474747474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4102564102564097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9744897959183678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.071794871794872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D888-4A86-AE0B-15CC4C6382FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="214372144"/>
+        <c:axId val="214373392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="214372144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214373392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214373392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214372144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1982,7 +4492,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1994,7 +4504,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2465,7 +4975,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2516,7 +5026,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2534,7 +5044,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2567,7 +5077,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2817,7 +5327,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FP dividing</c:v>
@@ -2899,7 +5409,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -2985,7 +5495,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -3071,7 +5581,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -3157,7 +5667,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -3579,7 +6089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4110,7 +6620,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4143,7 +6653,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4360,7 +6870,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -4372,7 +6882,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4849,7 +7359,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4900,7 +7410,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4918,7 +7428,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4951,7 +7461,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5201,7 +7711,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FP dividing</c:v>
@@ -5283,7 +7793,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -5369,7 +7879,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -5455,7 +7965,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -5541,7 +8051,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -5963,7 +8473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6769,7 +9279,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -6781,7 +9291,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7342,7 +9852,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -7393,7 +9903,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -7411,7 +9921,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7444,7 +9954,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -7694,7 +10204,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Built-in</c:v>
+                  <c:v>Built-in pow</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>FP dividing</c:v>
@@ -7776,7 +10286,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -7862,7 +10372,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -7948,7 +10458,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -8034,7 +10544,7 @@
             <c:strLit>
               <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>Built-in</c:v>
+                <c:v>Built-in pow</c:v>
               </c:pt>
               <c:pt idx="1">
                 <c:v>FP dividing</c:v>
@@ -8359,6 +10869,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9221,6 +11851,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -13536,6 +17675,107 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>210417</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13801,8 +18041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13831,90 +18071,90 @@
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="L1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="14">
         <v>27.66</v>
@@ -13972,7 +18212,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>6.74</v>
@@ -14030,7 +18270,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7">
         <v>4.3600000000000003</v>
@@ -14088,7 +18328,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7">
         <v>2.19</v>
@@ -14146,7 +18386,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>2.2400000000000002</v>
@@ -14204,7 +18444,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7">
         <v>5.51</v>
@@ -14258,113 +18498,113 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="O10" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="43" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B12" s="14">
         <v>28.2</v>
@@ -14419,7 +18659,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="7">
         <v>6.2</v>
@@ -14474,7 +18714,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="7">
         <v>8</v>
@@ -14529,7 +18769,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="7">
         <v>4</v>
@@ -14584,7 +18824,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7">
         <v>2.1</v>
@@ -14639,7 +18879,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
@@ -14693,113 +18933,113 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="I19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="L19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="O19" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="43" t="s">
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="47"/>
-      <c r="P20" s="53"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B21" s="14">
         <v>14.54</v>
@@ -14854,7 +19094,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="7">
         <v>6.85</v>
@@ -14909,7 +19149,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="7">
         <v>5.83</v>
@@ -14964,7 +19204,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="7">
         <v>1.01</v>
@@ -15019,7 +19259,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="7">
         <v>1.94</v>
@@ -15074,7 +19314,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="7">
         <v>2.0099999999999998</v>
@@ -15128,29 +19368,29 @@
       </c>
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
@@ -15158,13 +19398,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:W27"/>
-    <mergeCell ref="A18:W18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -15176,9 +19409,36 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A27:W27"/>
+    <mergeCell ref="A18:W18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="54" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="54"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Performance results/Results.xlsx
+++ b/Performance results/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Performance results" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -967,7 +970,6 @@
     <xf numFmtId="10" fontId="7" fillId="3" borderId="17" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="8" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="22" xfId="8" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
@@ -1010,7 +1012,6 @@
     <xf numFmtId="10" fontId="8" fillId="4" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1055,6 +1056,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2017,6 +2020,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2044,7 +2106,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$3,'Performance results'!$F$3,'Performance results'!$I$3,'Performance results'!$L$3,'Performance results'!$O$3)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2094,6 +2156,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2121,7 +2242,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$4,'Performance results'!$F$4,'Performance results'!$I$4,'Performance results'!$L$4,'Performance results'!$O$4)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.1038575667655781</c:v>
@@ -2171,6 +2292,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2198,7 +2378,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$5,'Performance results'!$F$5,'Performance results'!$I$5,'Performance results'!$L$5,'Performance results'!$O$5)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.3440366972477058</c:v>
@@ -2248,6 +2428,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2275,7 +2514,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$6,'Performance results'!$F$6,'Performance results'!$I$6,'Performance results'!$L$6,'Performance results'!$O$6)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.63013698630137</c:v>
@@ -2325,6 +2564,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2352,7 +2650,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$7,'Performance results'!$F$7,'Performance results'!$I$7,'Performance results'!$L$7,'Performance results'!$O$7)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.348214285714285</c:v>
@@ -2402,6 +2700,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2429,7 +2786,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$8,'Performance results'!$F$8,'Performance results'!$I$8,'Performance results'!$L$8,'Performance results'!$O$8)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0199637023593473</c:v>
@@ -2456,8 +2813,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2595,7 +2953,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2819,6 +3177,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2846,7 +3263,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$12,'Performance results'!$F$12,'Performance results'!$I$12,'Performance results'!$L$12,'Performance results'!$O$12)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2896,6 +3313,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -2923,7 +3399,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$13,'Performance results'!$F$13,'Performance results'!$I$13,'Performance results'!$L$13,'Performance results'!$O$13)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.5483870967741931</c:v>
@@ -2973,6 +3449,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -3000,7 +3535,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$14,'Performance results'!$F$14,'Performance results'!$I$14,'Performance results'!$L$14,'Performance results'!$O$14)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.5249999999999999</c:v>
@@ -3050,6 +3585,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -3077,7 +3671,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$15,'Performance results'!$F$15,'Performance results'!$I$15,'Performance results'!$L$15,'Performance results'!$O$15)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.05</c:v>
@@ -3133,6 +3727,65 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -3160,7 +3813,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$16,'Performance results'!$F$16,'Performance results'!$I$16,'Performance results'!$L$16,'Performance results'!$O$16)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13.428571428571427</c:v>
@@ -3210,6 +3863,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('Performance results'!$B$2,'Performance results'!$E$2,'Performance results'!$H$2,'Performance results'!$K$2,'Performance results'!$N$2)</c:f>
@@ -3237,7 +3949,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$17,'Performance results'!$F$17,'Performance results'!$I$17,'Performance results'!$L$17,'Performance results'!$O$17)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14.1</c:v>
@@ -3264,8 +3976,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3403,7 +4116,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3629,6 +4342,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -3670,7 +4442,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$21,'Performance results'!$F$21,'Performance results'!$I$21,'Performance results'!$L$21,'Performance results'!$O$21)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -3720,6 +4492,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -3761,7 +4592,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$22,'Performance results'!$F$22,'Performance results'!$I$22,'Performance results'!$L$22,'Performance results'!$O$22)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.1226277372262774</c:v>
@@ -3811,6 +4642,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -3852,7 +4742,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$23,'Performance results'!$F$23,'Performance results'!$I$23,'Performance results'!$L$23,'Performance results'!$O$23)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.4939965694682673</c:v>
@@ -3902,6 +4792,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -3943,7 +4892,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$24,'Performance results'!$F$24,'Performance results'!$I$24,'Performance results'!$L$24,'Performance results'!$O$24)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14.396039603960395</c:v>
@@ -3999,6 +4948,65 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -4040,7 +5048,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$25,'Performance results'!$F$25,'Performance results'!$I$25,'Performance results'!$L$25,'Performance results'!$O$25)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.4948453608247423</c:v>
@@ -4090,6 +5098,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -4131,7 +5198,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$26,'Performance results'!$F$26,'Performance results'!$I$26,'Performance results'!$L$26,'Performance results'!$O$26)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.2338308457711449</c:v>
@@ -4158,8 +5225,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4297,7 +5365,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4546,7 +5614,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$3,'Performance results'!$F$3,'Performance results'!$I$3,'Performance results'!$L$3,'Performance results'!$O$3)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -4623,7 +5691,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$4,'Performance results'!$F$4,'Performance results'!$I$4,'Performance results'!$L$4,'Performance results'!$O$4)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.1038575667655781</c:v>
@@ -4700,7 +5768,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$5,'Performance results'!$F$5,'Performance results'!$I$5,'Performance results'!$L$5,'Performance results'!$O$5)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.3440366972477058</c:v>
@@ -4777,7 +5845,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$6,'Performance results'!$F$6,'Performance results'!$I$6,'Performance results'!$L$6,'Performance results'!$O$6)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.63013698630137</c:v>
@@ -4854,7 +5922,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$7,'Performance results'!$F$7,'Performance results'!$I$7,'Performance results'!$L$7,'Performance results'!$O$7)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12.348214285714285</c:v>
@@ -4931,7 +5999,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$8,'Performance results'!$F$8,'Performance results'!$I$8,'Performance results'!$L$8,'Performance results'!$O$8)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.0199637023593473</c:v>
@@ -5097,7 +6165,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6924,7 +7992,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$12,'Performance results'!$F$12,'Performance results'!$I$12,'Performance results'!$L$12,'Performance results'!$O$12)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7001,7 +8069,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$13,'Performance results'!$F$13,'Performance results'!$I$13,'Performance results'!$L$13,'Performance results'!$O$13)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.5483870967741931</c:v>
@@ -7078,7 +8146,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$14,'Performance results'!$F$14,'Performance results'!$I$14,'Performance results'!$L$14,'Performance results'!$O$14)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.5249999999999999</c:v>
@@ -7155,7 +8223,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$15,'Performance results'!$F$15,'Performance results'!$I$15,'Performance results'!$L$15,'Performance results'!$O$15)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.05</c:v>
@@ -7238,7 +8306,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$16,'Performance results'!$F$16,'Performance results'!$I$16,'Performance results'!$L$16,'Performance results'!$O$16)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13.428571428571427</c:v>
@@ -7315,7 +8383,7 @@
             <c:numRef>
               <c:f>('Performance results'!$C$17,'Performance results'!$F$17,'Performance results'!$I$17,'Performance results'!$L$17,'Performance results'!$O$17)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14.1</c:v>
@@ -7481,7 +8549,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9347,7 +10415,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$21,'Performance results'!$F$21,'Performance results'!$I$21,'Performance results'!$L$21,'Performance results'!$O$21)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -9438,7 +10506,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$22,'Performance results'!$F$22,'Performance results'!$I$22,'Performance results'!$L$22,'Performance results'!$O$22)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.1226277372262774</c:v>
@@ -9529,7 +10597,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$23,'Performance results'!$F$23,'Performance results'!$I$23,'Performance results'!$L$23,'Performance results'!$O$23)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.4939965694682673</c:v>
@@ -9620,7 +10688,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$24,'Performance results'!$F$24,'Performance results'!$I$24,'Performance results'!$L$24,'Performance results'!$O$24)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14.396039603960395</c:v>
@@ -9717,7 +10785,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$25,'Performance results'!$F$25,'Performance results'!$I$25,'Performance results'!$L$25,'Performance results'!$O$25)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.4948453608247423</c:v>
@@ -9808,7 +10876,7 @@
               </c:extLst>
               <c:f>('Performance results'!$C$26,'Performance results'!$F$26,'Performance results'!$I$26,'Performance results'!$L$26,'Performance results'!$O$26)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7.2338308457711449</c:v>
@@ -9974,7 +11042,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -18041,8 +19109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18070,52 +19138,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18123,31 +19191,31 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="48" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -18159,51 +19227,51 @@
       <c r="B3" s="14">
         <v>27.66</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="53">
         <f>B$3/B3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>27.94</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="53">
         <f>E$3/E3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
       <c r="H3" s="14">
         <v>27.37</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="53">
         <f>H$3/H3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>0</v>
       </c>
       <c r="K3" s="14">
         <v>27.35</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="53">
         <f>K$3/K3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>0</v>
       </c>
       <c r="N3" s="3">
         <v>27.45</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="53">
         <f>N$3/N3</f>
         <v>1</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>0</v>
       </c>
       <c r="Y3" s="2"/>
@@ -18217,7 +19285,7 @@
       <c r="B4" s="7">
         <v>6.74</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="54">
         <f t="shared" ref="C4:C8" si="0">B$3/B4</f>
         <v>4.1038575667655781</v>
       </c>
@@ -18227,7 +19295,7 @@
       <c r="E4" s="6">
         <v>5.32</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="54">
         <f t="shared" ref="F4:F8" si="1">E$3/E4</f>
         <v>5.2518796992481205</v>
       </c>
@@ -18237,31 +19305,31 @@
       <c r="H4" s="7">
         <v>6.29</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="54">
         <f t="shared" ref="I4:I8" si="2">H$3/H4</f>
         <v>4.3513513513513518</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="31">
         <v>0.1047</v>
       </c>
       <c r="K4" s="7">
         <v>6.87</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="54">
         <f t="shared" ref="L4:L8" si="3">K$3/K4</f>
         <v>3.9810771470160118</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="N4" s="6">
         <v>7.58</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="54">
         <f t="shared" ref="O4:O8" si="4">N$3/N4</f>
         <v>3.6213720316622688</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="33">
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="Y4" s="2"/>
@@ -18275,7 +19343,7 @@
       <c r="B5" s="7">
         <v>4.3600000000000003</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="54">
         <f t="shared" si="0"/>
         <v>6.3440366972477058</v>
       </c>
@@ -18285,7 +19353,7 @@
       <c r="E5" s="6">
         <v>3.31</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="54">
         <f t="shared" si="1"/>
         <v>8.4410876132930515</v>
       </c>
@@ -18295,31 +19363,31 @@
       <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="54">
         <f t="shared" si="2"/>
         <v>6.8425000000000002</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="30">
         <v>1.66E-2</v>
       </c>
       <c r="K5" s="7">
         <v>4.58</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="54">
         <f t="shared" si="3"/>
         <v>5.9716157205240181</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <v>1.66E-2</v>
       </c>
       <c r="N5" s="6">
         <v>5.34</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="54">
         <f t="shared" si="4"/>
         <v>5.1404494382022472</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="33">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y5" s="2"/>
@@ -18333,7 +19401,7 @@
       <c r="B6" s="7">
         <v>2.19</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="54">
         <f t="shared" si="0"/>
         <v>12.63013698630137</v>
       </c>
@@ -18343,7 +19411,7 @@
       <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="54">
         <f t="shared" si="1"/>
         <v>13.97</v>
       </c>
@@ -18353,31 +19421,31 @@
       <c r="H6" s="7">
         <v>2.69</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="54">
         <f t="shared" si="2"/>
         <v>10.174721189591079</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <v>0.9748</v>
       </c>
       <c r="K6" s="7">
         <v>3.31</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="54">
         <f t="shared" si="3"/>
         <v>8.2628398791540789</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <v>48.143999999999998</v>
       </c>
       <c r="N6" s="6">
         <v>3.82</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="54">
         <f t="shared" si="4"/>
         <v>7.1858638743455501</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="34">
         <v>0.97489999999999999</v>
       </c>
       <c r="Y6" s="2"/>
@@ -18391,7 +19459,7 @@
       <c r="B7" s="7">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="54">
         <f t="shared" si="0"/>
         <v>12.348214285714285</v>
       </c>
@@ -18401,7 +19469,7 @@
       <c r="E7" s="6">
         <v>2.37</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="54">
         <f t="shared" si="1"/>
         <v>11.789029535864978</v>
       </c>
@@ -18411,31 +19479,31 @@
       <c r="H7" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="54">
         <f t="shared" si="2"/>
         <v>11.171428571428571</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="30">
         <v>9.06E-2</v>
       </c>
       <c r="K7" s="7">
         <v>2.23</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="54">
         <f t="shared" si="3"/>
         <v>12.264573991031391</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>0.1875</v>
       </c>
       <c r="N7" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="54">
         <f t="shared" si="4"/>
         <v>12.364864864864863</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="34">
         <v>0.35020000000000001</v>
       </c>
       <c r="Y7" s="2"/>
@@ -18449,7 +19517,7 @@
       <c r="B8" s="7">
         <v>5.51</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="54">
         <f t="shared" si="0"/>
         <v>5.0199637023593473</v>
       </c>
@@ -18459,7 +19527,7 @@
       <c r="E8" s="6">
         <v>5.7</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="54">
         <f t="shared" si="1"/>
         <v>4.901754385964912</v>
       </c>
@@ -18469,106 +19537,106 @@
       <c r="H8" s="7">
         <v>5.5</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="54">
         <f t="shared" si="2"/>
         <v>4.9763636363636365</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <v>0.17530000000000001</v>
       </c>
       <c r="K8" s="7">
         <v>5.54</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="54">
         <f t="shared" si="3"/>
         <v>4.9368231046931408</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>0.371</v>
       </c>
       <c r="N8" s="6">
         <v>5.45</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="54">
         <f t="shared" si="4"/>
         <v>5.0366972477064218</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="34">
         <v>0.63080000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
     </row>
     <row r="10" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18576,31 +19644,31 @@
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="42" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="42" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="51"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -18609,51 +19677,51 @@
       <c r="B12" s="14">
         <v>28.2</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="53">
         <f>B$12/B12</f>
         <v>1</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
       <c r="E12" s="14">
         <v>28.3</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="53">
         <f>E$12/E12</f>
         <v>1</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0</v>
       </c>
       <c r="H12" s="14">
         <v>28.4</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="53">
         <f>H$12/H12</f>
         <v>1</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <v>0</v>
       </c>
       <c r="K12" s="14">
         <v>28.5</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="53">
         <f>K$12/K12</f>
         <v>1</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>0</v>
       </c>
       <c r="N12" s="14">
         <v>28.2</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="53">
         <f>N$12/N12</f>
         <v>1</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="36">
         <v>0</v>
       </c>
     </row>
@@ -18664,7 +19732,7 @@
       <c r="B13" s="7">
         <v>6.2</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="54">
         <f t="shared" ref="C13:C17" si="5">B$12/B13</f>
         <v>4.5483870967741931</v>
       </c>
@@ -18674,7 +19742,7 @@
       <c r="E13" s="7">
         <v>6.2</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="54">
         <f t="shared" ref="F13:F17" si="6">E$12/E13</f>
         <v>4.564516129032258</v>
       </c>
@@ -18684,31 +19752,31 @@
       <c r="H13" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="54">
         <f t="shared" ref="I13:I17" si="7">H$12/H13</f>
         <v>3.4634146341463414</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>0.1047</v>
       </c>
       <c r="K13" s="7">
         <v>8</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="54">
         <f t="shared" ref="L13:L17" si="8">K$12/K13</f>
         <v>3.5625</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="N13" s="7">
         <v>9.1</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="54">
         <f t="shared" ref="O13:O17" si="9">N$12/N13</f>
         <v>3.098901098901099</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="33">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
@@ -18719,7 +19787,7 @@
       <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="54">
         <f t="shared" si="5"/>
         <v>3.5249999999999999</v>
       </c>
@@ -18729,7 +19797,7 @@
       <c r="E14" s="7">
         <v>6.1</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="54">
         <f t="shared" si="6"/>
         <v>4.639344262295082</v>
       </c>
@@ -18739,31 +19807,31 @@
       <c r="H14" s="7">
         <v>7.6</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="54">
         <f t="shared" si="7"/>
         <v>3.736842105263158</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="30">
         <v>1.66E-2</v>
       </c>
       <c r="K14" s="7">
         <v>8.1</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="54">
         <f t="shared" si="8"/>
         <v>3.5185185185185186</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>1.66E-2</v>
       </c>
       <c r="N14" s="7">
         <v>8.9</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="54">
         <f t="shared" si="9"/>
         <v>3.1685393258426964</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="33">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -18774,7 +19842,7 @@
       <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="54">
         <f t="shared" si="5"/>
         <v>7.05</v>
       </c>
@@ -18784,7 +19852,7 @@
       <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="54">
         <f t="shared" si="6"/>
         <v>14.15</v>
       </c>
@@ -18794,31 +19862,31 @@
       <c r="H15" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="54">
         <f t="shared" si="7"/>
         <v>6.9268292682926829</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>0.9748</v>
       </c>
       <c r="K15" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="54">
         <f t="shared" si="8"/>
         <v>6.9512195121951228</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>48.143999999999998</v>
       </c>
       <c r="N15" s="7">
         <v>6</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="54">
         <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <v>0.97489999999999999</v>
       </c>
     </row>
@@ -18829,7 +19897,7 @@
       <c r="B16" s="7">
         <v>2.1</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="54">
         <f t="shared" si="5"/>
         <v>13.428571428571427</v>
       </c>
@@ -18839,7 +19907,7 @@
       <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="54">
         <f t="shared" si="6"/>
         <v>14.15</v>
       </c>
@@ -18849,31 +19917,31 @@
       <c r="H16" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="54">
         <f t="shared" si="7"/>
         <v>12.347826086956522</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="30">
         <v>9.06E-2</v>
       </c>
       <c r="K16" s="7">
         <v>2.1</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="54">
         <f t="shared" si="8"/>
         <v>13.571428571428571</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="31">
         <v>0.1875</v>
       </c>
       <c r="N16" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="54">
         <f t="shared" si="9"/>
         <v>12.818181818181817</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="34">
         <v>0.35020000000000001</v>
       </c>
     </row>
@@ -18884,7 +19952,7 @@
       <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="54">
         <f t="shared" si="5"/>
         <v>14.1</v>
       </c>
@@ -18894,7 +19962,7 @@
       <c r="E17" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="54">
         <f t="shared" si="6"/>
         <v>12.304347826086957</v>
       </c>
@@ -18904,106 +19972,106 @@
       <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="54">
         <f t="shared" si="7"/>
         <v>14.2</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>0.17530000000000001</v>
       </c>
       <c r="K17" s="7">
         <v>2.1</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="54">
         <f t="shared" si="8"/>
         <v>13.571428571428571</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="32">
         <v>0.371</v>
       </c>
       <c r="N17" s="7">
         <v>2</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="54">
         <f t="shared" si="9"/>
         <v>14.1</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="34">
         <v>0.63080000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19011,31 +20079,31 @@
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="42" t="s">
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45" t="s">
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -19044,51 +20112,51 @@
       <c r="B21" s="14">
         <v>14.54</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="53">
         <f>B$21/B21</f>
         <v>1</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>0</v>
       </c>
       <c r="E21" s="14">
         <v>14.35</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="53">
         <f>E$21/E21</f>
         <v>1</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>0</v>
       </c>
       <c r="H21" s="14">
         <v>14.45</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="53">
         <f>H$21/H21</f>
         <v>1</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <v>0</v>
       </c>
       <c r="K21" s="14">
         <v>17.59</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="53">
         <f>K$21/K21</f>
         <v>1</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="35">
         <v>0</v>
       </c>
       <c r="N21" s="14">
         <v>19.64</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="53">
         <f>N$21/N21</f>
         <v>1</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="36">
         <v>0</v>
       </c>
     </row>
@@ -19099,7 +20167,7 @@
       <c r="B22" s="7">
         <v>6.85</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="54">
         <f t="shared" ref="C22:C26" si="10">B$21/B22</f>
         <v>2.1226277372262774</v>
       </c>
@@ -19109,7 +20177,7 @@
       <c r="E22" s="7">
         <v>6.03</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="54">
         <f t="shared" ref="F22:F26" si="11">E$21/E22</f>
         <v>2.3797678275290215</v>
       </c>
@@ -19119,31 +20187,31 @@
       <c r="H22" s="7">
         <v>6.64</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="54">
         <f t="shared" ref="I22:I26" si="12">H$21/H22</f>
         <v>2.1762048192771086</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="31">
         <v>0.1047</v>
       </c>
       <c r="K22" s="7">
         <v>7.57</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="54">
         <f t="shared" ref="L22:L26" si="13">K$21/K22</f>
         <v>2.3236459709379127</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <v>8.6199999999999999E-2</v>
       </c>
       <c r="N22" s="7">
         <v>8.7200000000000006</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="54">
         <f t="shared" ref="O22:O26" si="14">N$21/N22</f>
         <v>2.2522935779816513</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="33">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
@@ -19154,7 +20222,7 @@
       <c r="B23" s="7">
         <v>5.83</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="54">
         <f t="shared" si="10"/>
         <v>2.4939965694682673</v>
       </c>
@@ -19164,7 +20232,7 @@
       <c r="E23" s="7">
         <v>4.3</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="54">
         <f t="shared" si="11"/>
         <v>3.3372093023255816</v>
       </c>
@@ -19174,31 +20242,31 @@
       <c r="H23" s="7">
         <v>5.41</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="54">
         <f t="shared" si="12"/>
         <v>2.6709796672828094</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="30">
         <v>1.66E-2</v>
       </c>
       <c r="K23" s="7">
         <v>6.24</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="54">
         <f t="shared" si="13"/>
         <v>2.8189102564102564</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <v>1.66E-2</v>
       </c>
       <c r="N23" s="7">
         <v>6.97</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="54">
         <f t="shared" si="14"/>
         <v>2.817790530846485</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="33">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -19209,7 +20277,7 @@
       <c r="B24" s="7">
         <v>1.01</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="54">
         <f t="shared" si="10"/>
         <v>14.396039603960395</v>
       </c>
@@ -19219,7 +20287,7 @@
       <c r="E24" s="7">
         <v>1.78</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="54">
         <f t="shared" si="11"/>
         <v>8.0617977528089888</v>
       </c>
@@ -19229,31 +20297,31 @@
       <c r="H24" s="7">
         <v>2.77</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="54">
         <f t="shared" si="12"/>
         <v>5.2166064981949454</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <v>0.9748</v>
       </c>
       <c r="K24" s="7">
         <v>3.52</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="54">
         <f t="shared" si="13"/>
         <v>4.9971590909090908</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>48.143999999999998</v>
       </c>
       <c r="N24" s="7">
         <v>4.2699999999999996</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="54">
         <f t="shared" si="14"/>
         <v>4.5995316159250592</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24" s="34">
         <v>0.97489999999999999</v>
       </c>
     </row>
@@ -19264,7 +20332,7 @@
       <c r="B25" s="7">
         <v>1.94</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="54">
         <f t="shared" si="10"/>
         <v>7.4948453608247423</v>
       </c>
@@ -19274,7 +20342,7 @@
       <c r="E25" s="7">
         <v>1.92</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="54">
         <f t="shared" si="11"/>
         <v>7.473958333333333</v>
       </c>
@@ -19284,31 +20352,31 @@
       <c r="H25" s="7">
         <v>1.89</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="54">
         <f t="shared" si="12"/>
         <v>7.6455026455026456</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <v>9.06E-2</v>
       </c>
       <c r="K25" s="7">
         <v>1.88</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="54">
         <f t="shared" si="13"/>
         <v>9.3563829787234045</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>0.1875</v>
       </c>
       <c r="N25" s="7">
         <v>1.87</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="54">
         <f t="shared" si="14"/>
         <v>10.502673796791443</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25" s="34">
         <v>0.35020000000000001</v>
       </c>
     </row>
@@ -19319,7 +20387,7 @@
       <c r="B26" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="54">
         <f t="shared" si="10"/>
         <v>7.2338308457711449</v>
       </c>
@@ -19329,7 +20397,7 @@
       <c r="E26" s="7">
         <v>1.98</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="54">
         <f t="shared" si="11"/>
         <v>7.2474747474747474</v>
       </c>
@@ -19339,58 +20407,58 @@
       <c r="H26" s="7">
         <v>1.95</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="54">
         <f t="shared" si="12"/>
         <v>7.4102564102564097</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="31">
         <v>0.17530000000000001</v>
       </c>
       <c r="K26" s="7">
         <v>1.96</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="54">
         <f t="shared" si="13"/>
         <v>8.9744897959183678</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="32">
         <v>0.371</v>
       </c>
       <c r="N26" s="7">
         <v>1.95</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="54">
         <f t="shared" si="14"/>
         <v>10.071794871794872</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="34">
         <v>0.63080000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
@@ -19427,14 +20495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="54" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="1" width="9.140625" style="52" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Performance results/Results.xlsx
+++ b/Performance results/Results.xlsx
@@ -952,7 +952,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1013,11 +1013,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1034,18 +1040,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1055,9 +1049,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="16" xfId="8" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3113,8 +3114,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20636700607792985"/>
-          <c:y val="2.6985277087799891E-2"/>
+          <c:x val="0.3085957562758222"/>
+          <c:y val="2.6985321279284533E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7688,7 +7689,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7721,7 +7722,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -18748,13 +18749,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>244928</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -18779,16 +18780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249009</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18811,16 +18812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>210417</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19109,8 +19110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19191,31 +19192,31 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="51"/>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="51"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="51"/>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="47"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="51"/>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -19227,7 +19228,7 @@
       <c r="B3" s="14">
         <v>27.66</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="39">
         <f>B$3/B3</f>
         <v>1</v>
       </c>
@@ -19237,7 +19238,7 @@
       <c r="E3" s="3">
         <v>27.94</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="39">
         <f>E$3/E3</f>
         <v>1</v>
       </c>
@@ -19247,7 +19248,7 @@
       <c r="H3" s="14">
         <v>27.37</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="39">
         <f>H$3/H3</f>
         <v>1</v>
       </c>
@@ -19257,7 +19258,7 @@
       <c r="K3" s="14">
         <v>27.35</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="39">
         <f>K$3/K3</f>
         <v>1</v>
       </c>
@@ -19267,7 +19268,7 @@
       <c r="N3" s="3">
         <v>27.45</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="39">
         <f>N$3/N3</f>
         <v>1</v>
       </c>
@@ -19285,7 +19286,7 @@
       <c r="B4" s="7">
         <v>6.74</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="40">
         <f t="shared" ref="C4:C8" si="0">B$3/B4</f>
         <v>4.1038575667655781</v>
       </c>
@@ -19295,7 +19296,7 @@
       <c r="E4" s="6">
         <v>5.32</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="40">
         <f t="shared" ref="F4:F8" si="1">E$3/E4</f>
         <v>5.2518796992481205</v>
       </c>
@@ -19305,7 +19306,7 @@
       <c r="H4" s="7">
         <v>6.29</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="40">
         <f t="shared" ref="I4:I8" si="2">H$3/H4</f>
         <v>4.3513513513513518</v>
       </c>
@@ -19315,7 +19316,7 @@
       <c r="K4" s="7">
         <v>6.87</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="40">
         <f t="shared" ref="L4:L8" si="3">K$3/K4</f>
         <v>3.9810771470160118</v>
       </c>
@@ -19325,13 +19326,14 @@
       <c r="N4" s="6">
         <v>7.58</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="40">
         <f t="shared" ref="O4:O8" si="4">N$3/N4</f>
         <v>3.6213720316622688</v>
       </c>
       <c r="P4" s="33">
         <v>3.1399999999999997E-2</v>
       </c>
+      <c r="S4" s="55"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -19343,7 +19345,7 @@
       <c r="B5" s="7">
         <v>4.3600000000000003</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="40">
         <f t="shared" si="0"/>
         <v>6.3440366972477058</v>
       </c>
@@ -19353,7 +19355,7 @@
       <c r="E5" s="6">
         <v>3.31</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="40">
         <f t="shared" si="1"/>
         <v>8.4410876132930515</v>
       </c>
@@ -19363,7 +19365,7 @@
       <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="40">
         <f t="shared" si="2"/>
         <v>6.8425000000000002</v>
       </c>
@@ -19373,7 +19375,7 @@
       <c r="K5" s="7">
         <v>4.58</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="40">
         <f t="shared" si="3"/>
         <v>5.9716157205240181</v>
       </c>
@@ -19383,13 +19385,14 @@
       <c r="N5" s="6">
         <v>5.34</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="40">
         <f t="shared" si="4"/>
         <v>5.1404494382022472</v>
       </c>
       <c r="P5" s="33">
         <v>1.6500000000000001E-2</v>
       </c>
+      <c r="S5" s="55"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -19401,7 +19404,7 @@
       <c r="B6" s="7">
         <v>2.19</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="40">
         <f t="shared" si="0"/>
         <v>12.63013698630137</v>
       </c>
@@ -19411,7 +19414,7 @@
       <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="40">
         <f t="shared" si="1"/>
         <v>13.97</v>
       </c>
@@ -19421,7 +19424,7 @@
       <c r="H6" s="7">
         <v>2.69</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="40">
         <f t="shared" si="2"/>
         <v>10.174721189591079</v>
       </c>
@@ -19431,7 +19434,7 @@
       <c r="K6" s="7">
         <v>3.31</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="40">
         <f t="shared" si="3"/>
         <v>8.2628398791540789</v>
       </c>
@@ -19441,13 +19444,14 @@
       <c r="N6" s="6">
         <v>3.82</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="40">
         <f t="shared" si="4"/>
         <v>7.1858638743455501</v>
       </c>
       <c r="P6" s="34">
         <v>0.97489999999999999</v>
       </c>
+      <c r="S6" s="55"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -19459,7 +19463,7 @@
       <c r="B7" s="7">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="40">
         <f t="shared" si="0"/>
         <v>12.348214285714285</v>
       </c>
@@ -19469,7 +19473,7 @@
       <c r="E7" s="6">
         <v>2.37</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="40">
         <f t="shared" si="1"/>
         <v>11.789029535864978</v>
       </c>
@@ -19479,7 +19483,7 @@
       <c r="H7" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="40">
         <f t="shared" si="2"/>
         <v>11.171428571428571</v>
       </c>
@@ -19489,7 +19493,7 @@
       <c r="K7" s="7">
         <v>2.23</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="40">
         <f t="shared" si="3"/>
         <v>12.264573991031391</v>
       </c>
@@ -19499,13 +19503,14 @@
       <c r="N7" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="40">
         <f t="shared" si="4"/>
         <v>12.364864864864863</v>
       </c>
       <c r="P7" s="34">
         <v>0.35020000000000001</v>
       </c>
+      <c r="S7" s="55"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -19517,7 +19522,7 @@
       <c r="B8" s="7">
         <v>5.51</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="40">
         <f t="shared" si="0"/>
         <v>5.0199637023593473</v>
       </c>
@@ -19527,7 +19532,7 @@
       <c r="E8" s="6">
         <v>5.7</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="40">
         <f t="shared" si="1"/>
         <v>4.901754385964912</v>
       </c>
@@ -19537,7 +19542,7 @@
       <c r="H8" s="7">
         <v>5.5</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="40">
         <f t="shared" si="2"/>
         <v>4.9763636363636365</v>
       </c>
@@ -19547,7 +19552,7 @@
       <c r="K8" s="7">
         <v>5.54</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="40">
         <f t="shared" si="3"/>
         <v>4.9368231046931408</v>
       </c>
@@ -19557,13 +19562,14 @@
       <c r="N8" s="6">
         <v>5.45</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="40">
         <f t="shared" si="4"/>
         <v>5.0366972477064218</v>
       </c>
       <c r="P8" s="34">
         <v>0.63080000000000003</v>
       </c>
+      <c r="S8" s="55"/>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
@@ -19644,30 +19650,30 @@
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="40" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40" t="s">
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="40" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="44"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -19677,7 +19683,7 @@
       <c r="B12" s="14">
         <v>28.2</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="39">
         <f>B$12/B12</f>
         <v>1</v>
       </c>
@@ -19687,7 +19693,7 @@
       <c r="E12" s="14">
         <v>28.3</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="39">
         <f>E$12/E12</f>
         <v>1</v>
       </c>
@@ -19697,7 +19703,7 @@
       <c r="H12" s="14">
         <v>28.4</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="39">
         <f>H$12/H12</f>
         <v>1</v>
       </c>
@@ -19707,7 +19713,7 @@
       <c r="K12" s="14">
         <v>28.5</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="39">
         <f>K$12/K12</f>
         <v>1</v>
       </c>
@@ -19717,7 +19723,7 @@
       <c r="N12" s="14">
         <v>28.2</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="39">
         <f>N$12/N12</f>
         <v>1</v>
       </c>
@@ -19732,7 +19738,7 @@
       <c r="B13" s="7">
         <v>6.2</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="40">
         <f t="shared" ref="C13:C17" si="5">B$12/B13</f>
         <v>4.5483870967741931</v>
       </c>
@@ -19742,7 +19748,7 @@
       <c r="E13" s="7">
         <v>6.2</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="40">
         <f t="shared" ref="F13:F17" si="6">E$12/E13</f>
         <v>4.564516129032258</v>
       </c>
@@ -19752,7 +19758,7 @@
       <c r="H13" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="40">
         <f t="shared" ref="I13:I17" si="7">H$12/H13</f>
         <v>3.4634146341463414</v>
       </c>
@@ -19762,7 +19768,7 @@
       <c r="K13" s="7">
         <v>8</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="40">
         <f t="shared" ref="L13:L17" si="8">K$12/K13</f>
         <v>3.5625</v>
       </c>
@@ -19772,7 +19778,7 @@
       <c r="N13" s="7">
         <v>9.1</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="40">
         <f t="shared" ref="O13:O17" si="9">N$12/N13</f>
         <v>3.098901098901099</v>
       </c>
@@ -19787,7 +19793,7 @@
       <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="40">
         <f t="shared" si="5"/>
         <v>3.5249999999999999</v>
       </c>
@@ -19797,7 +19803,7 @@
       <c r="E14" s="7">
         <v>6.1</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="40">
         <f t="shared" si="6"/>
         <v>4.639344262295082</v>
       </c>
@@ -19807,7 +19813,7 @@
       <c r="H14" s="7">
         <v>7.6</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="40">
         <f t="shared" si="7"/>
         <v>3.736842105263158</v>
       </c>
@@ -19817,7 +19823,7 @@
       <c r="K14" s="7">
         <v>8.1</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="40">
         <f t="shared" si="8"/>
         <v>3.5185185185185186</v>
       </c>
@@ -19827,7 +19833,7 @@
       <c r="N14" s="7">
         <v>8.9</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14" s="40">
         <f t="shared" si="9"/>
         <v>3.1685393258426964</v>
       </c>
@@ -19842,7 +19848,7 @@
       <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="40">
         <f t="shared" si="5"/>
         <v>7.05</v>
       </c>
@@ -19852,7 +19858,7 @@
       <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="40">
         <f t="shared" si="6"/>
         <v>14.15</v>
       </c>
@@ -19862,7 +19868,7 @@
       <c r="H15" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="40">
         <f t="shared" si="7"/>
         <v>6.9268292682926829</v>
       </c>
@@ -19872,7 +19878,7 @@
       <c r="K15" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="40">
         <f t="shared" si="8"/>
         <v>6.9512195121951228</v>
       </c>
@@ -19882,7 +19888,7 @@
       <c r="N15" s="7">
         <v>6</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="40">
         <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
@@ -19897,7 +19903,7 @@
       <c r="B16" s="7">
         <v>2.1</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="40">
         <f t="shared" si="5"/>
         <v>13.428571428571427</v>
       </c>
@@ -19907,7 +19913,7 @@
       <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="40">
         <f t="shared" si="6"/>
         <v>14.15</v>
       </c>
@@ -19917,7 +19923,7 @@
       <c r="H16" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="40">
         <f t="shared" si="7"/>
         <v>12.347826086956522</v>
       </c>
@@ -19927,7 +19933,7 @@
       <c r="K16" s="7">
         <v>2.1</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="40">
         <f t="shared" si="8"/>
         <v>13.571428571428571</v>
       </c>
@@ -19937,7 +19943,7 @@
       <c r="N16" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="40">
         <f t="shared" si="9"/>
         <v>12.818181818181817</v>
       </c>
@@ -19952,7 +19958,7 @@
       <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="40">
         <f t="shared" si="5"/>
         <v>14.1</v>
       </c>
@@ -19962,7 +19968,7 @@
       <c r="E17" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="40">
         <f t="shared" si="6"/>
         <v>12.304347826086957</v>
       </c>
@@ -19972,7 +19978,7 @@
       <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="40">
         <f t="shared" si="7"/>
         <v>14.2</v>
       </c>
@@ -19982,7 +19988,7 @@
       <c r="K17" s="7">
         <v>2.1</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="40">
         <f t="shared" si="8"/>
         <v>13.571428571428571</v>
       </c>
@@ -19992,7 +19998,7 @@
       <c r="N17" s="7">
         <v>2</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="40">
         <f t="shared" si="9"/>
         <v>14.1</v>
       </c>
@@ -20001,29 +20007,29 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -20079,31 +20085,31 @@
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="40" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="40" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="40" t="s">
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43" t="s">
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="45"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -20112,7 +20118,7 @@
       <c r="B21" s="14">
         <v>14.54</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="39">
         <f>B$21/B21</f>
         <v>1</v>
       </c>
@@ -20122,7 +20128,7 @@
       <c r="E21" s="14">
         <v>14.35</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="39">
         <f>E$21/E21</f>
         <v>1</v>
       </c>
@@ -20132,7 +20138,7 @@
       <c r="H21" s="14">
         <v>14.45</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="39">
         <f>H$21/H21</f>
         <v>1</v>
       </c>
@@ -20142,7 +20148,7 @@
       <c r="K21" s="14">
         <v>17.59</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="39">
         <f>K$21/K21</f>
         <v>1</v>
       </c>
@@ -20152,7 +20158,7 @@
       <c r="N21" s="14">
         <v>19.64</v>
       </c>
-      <c r="O21" s="53">
+      <c r="O21" s="39">
         <f>N$21/N21</f>
         <v>1</v>
       </c>
@@ -20167,7 +20173,7 @@
       <c r="B22" s="7">
         <v>6.85</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="40">
         <f t="shared" ref="C22:C26" si="10">B$21/B22</f>
         <v>2.1226277372262774</v>
       </c>
@@ -20177,7 +20183,7 @@
       <c r="E22" s="7">
         <v>6.03</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="40">
         <f t="shared" ref="F22:F26" si="11">E$21/E22</f>
         <v>2.3797678275290215</v>
       </c>
@@ -20187,7 +20193,7 @@
       <c r="H22" s="7">
         <v>6.64</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="40">
         <f t="shared" ref="I22:I26" si="12">H$21/H22</f>
         <v>2.1762048192771086</v>
       </c>
@@ -20197,7 +20203,7 @@
       <c r="K22" s="7">
         <v>7.57</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="40">
         <f t="shared" ref="L22:L26" si="13">K$21/K22</f>
         <v>2.3236459709379127</v>
       </c>
@@ -20207,7 +20213,7 @@
       <c r="N22" s="7">
         <v>8.7200000000000006</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="40">
         <f t="shared" ref="O22:O26" si="14">N$21/N22</f>
         <v>2.2522935779816513</v>
       </c>
@@ -20222,7 +20228,7 @@
       <c r="B23" s="7">
         <v>5.83</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="40">
         <f t="shared" si="10"/>
         <v>2.4939965694682673</v>
       </c>
@@ -20232,7 +20238,7 @@
       <c r="E23" s="7">
         <v>4.3</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="40">
         <f t="shared" si="11"/>
         <v>3.3372093023255816</v>
       </c>
@@ -20242,7 +20248,7 @@
       <c r="H23" s="7">
         <v>5.41</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="40">
         <f t="shared" si="12"/>
         <v>2.6709796672828094</v>
       </c>
@@ -20252,7 +20258,7 @@
       <c r="K23" s="7">
         <v>6.24</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="40">
         <f t="shared" si="13"/>
         <v>2.8189102564102564</v>
       </c>
@@ -20262,7 +20268,7 @@
       <c r="N23" s="7">
         <v>6.97</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="40">
         <f t="shared" si="14"/>
         <v>2.817790530846485</v>
       </c>
@@ -20277,7 +20283,7 @@
       <c r="B24" s="7">
         <v>1.01</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="40">
         <f t="shared" si="10"/>
         <v>14.396039603960395</v>
       </c>
@@ -20287,7 +20293,7 @@
       <c r="E24" s="7">
         <v>1.78</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="40">
         <f t="shared" si="11"/>
         <v>8.0617977528089888</v>
       </c>
@@ -20297,7 +20303,7 @@
       <c r="H24" s="7">
         <v>2.77</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="40">
         <f t="shared" si="12"/>
         <v>5.2166064981949454</v>
       </c>
@@ -20307,7 +20313,7 @@
       <c r="K24" s="7">
         <v>3.52</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="40">
         <f t="shared" si="13"/>
         <v>4.9971590909090908</v>
       </c>
@@ -20317,7 +20323,7 @@
       <c r="N24" s="7">
         <v>4.2699999999999996</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="40">
         <f t="shared" si="14"/>
         <v>4.5995316159250592</v>
       </c>
@@ -20332,7 +20338,7 @@
       <c r="B25" s="7">
         <v>1.94</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="40">
         <f t="shared" si="10"/>
         <v>7.4948453608247423</v>
       </c>
@@ -20342,7 +20348,7 @@
       <c r="E25" s="7">
         <v>1.92</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="40">
         <f t="shared" si="11"/>
         <v>7.473958333333333</v>
       </c>
@@ -20352,7 +20358,7 @@
       <c r="H25" s="7">
         <v>1.89</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="40">
         <f t="shared" si="12"/>
         <v>7.6455026455026456</v>
       </c>
@@ -20362,7 +20368,7 @@
       <c r="K25" s="7">
         <v>1.88</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="40">
         <f t="shared" si="13"/>
         <v>9.3563829787234045</v>
       </c>
@@ -20372,7 +20378,7 @@
       <c r="N25" s="7">
         <v>1.87</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="40">
         <f t="shared" si="14"/>
         <v>10.502673796791443</v>
       </c>
@@ -20387,7 +20393,7 @@
       <c r="B26" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="40">
         <f t="shared" si="10"/>
         <v>7.2338308457711449</v>
       </c>
@@ -20397,7 +20403,7 @@
       <c r="E26" s="7">
         <v>1.98</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="40">
         <f t="shared" si="11"/>
         <v>7.2474747474747474</v>
       </c>
@@ -20407,7 +20413,7 @@
       <c r="H26" s="7">
         <v>1.95</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="40">
         <f t="shared" si="12"/>
         <v>7.4102564102564097</v>
       </c>
@@ -20417,7 +20423,7 @@
       <c r="K26" s="7">
         <v>1.96</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="40">
         <f t="shared" si="13"/>
         <v>8.9744897959183678</v>
       </c>
@@ -20427,7 +20433,7 @@
       <c r="N26" s="7">
         <v>1.95</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="40">
         <f t="shared" si="14"/>
         <v>10.071794871794872</v>
       </c>
@@ -20436,29 +20442,29 @@
       </c>
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
@@ -20466,6 +20472,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:W27"/>
+    <mergeCell ref="A18:W18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -20477,13 +20490,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A27:W27"/>
-    <mergeCell ref="A18:W18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20495,14 +20501,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="52" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="9.140625" style="38" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
